--- a/ANVNSequential.xlsx
+++ b/ANVNSequential.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,6 +455,1062 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>250</v>
+      </c>
+      <c r="C2" t="n">
+        <v>42.66</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4344.47021484375</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>225</v>
+      </c>
+      <c r="C3" t="n">
+        <v>43.01</v>
+      </c>
+      <c r="D3" t="n">
+        <v>4696.4462890625</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>200</v>
+      </c>
+      <c r="C4" t="n">
+        <v>42.53</v>
+      </c>
+      <c r="D4" t="n">
+        <v>4464.990234375</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>175</v>
+      </c>
+      <c r="C5" t="n">
+        <v>43.38</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4530.91845703125</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>150</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40.86</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4122.59814453125</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>125</v>
+      </c>
+      <c r="C7" t="n">
+        <v>43.34</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4081.096435546875</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>43.84</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3749.008544921875</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>75</v>
+      </c>
+      <c r="C9" t="n">
+        <v>44.65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3821.219482421875</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>50</v>
+      </c>
+      <c r="C10" t="n">
+        <v>48.15</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3231.952880859375</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>25</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47.83</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3002.94140625</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>250</v>
+      </c>
+      <c r="C13" t="n">
+        <v>34.39</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2727.001220703125</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>225</v>
+      </c>
+      <c r="C14" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2706.59814453125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>200</v>
+      </c>
+      <c r="C15" t="n">
+        <v>40.35</v>
+      </c>
+      <c r="D15" t="n">
+        <v>2494.533935546875</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>175</v>
+      </c>
+      <c r="C16" t="n">
+        <v>39.92</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2661.68603515625</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>150</v>
+      </c>
+      <c r="C17" t="n">
+        <v>42.14</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2107.7919921875</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>125</v>
+      </c>
+      <c r="C18" t="n">
+        <v>40.76</v>
+      </c>
+      <c r="D18" t="n">
+        <v>2376.982177734375</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>100</v>
+      </c>
+      <c r="C19" t="n">
+        <v>40.63</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2196.071044921875</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>75</v>
+      </c>
+      <c r="C20" t="n">
+        <v>48.08</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1828.467163085938</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>50</v>
+      </c>
+      <c r="C21" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1730.294921875</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>25</v>
+      </c>
+      <c r="C22" t="n">
+        <v>48.21</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1526.817138671875</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>10</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>250</v>
+      </c>
+      <c r="C24" t="n">
+        <v>33.31</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1413.07080078125</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>225</v>
+      </c>
+      <c r="C25" t="n">
+        <v>35.14</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1114.274169921875</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>200</v>
+      </c>
+      <c r="C26" t="n">
+        <v>31.68</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1137.008911132812</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>175</v>
+      </c>
+      <c r="C27" t="n">
+        <v>40.89</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1112.326416015625</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>150</v>
+      </c>
+      <c r="C28" t="n">
+        <v>40.23</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1034.570190429688</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>125</v>
+      </c>
+      <c r="C29" t="n">
+        <v>38.44</v>
+      </c>
+      <c r="D29" t="n">
+        <v>971.0333862304688</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>100</v>
+      </c>
+      <c r="C30" t="n">
+        <v>41.68</v>
+      </c>
+      <c r="D30" t="n">
+        <v>909.75048828125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>75</v>
+      </c>
+      <c r="C31" t="n">
+        <v>47.69</v>
+      </c>
+      <c r="D31" t="n">
+        <v>781.1387939453125</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="D32" t="n">
+        <v>801.6931762695312</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>25</v>
+      </c>
+      <c r="C33" t="n">
+        <v>49.07</v>
+      </c>
+      <c r="D33" t="n">
+        <v>716.5515747070312</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>10</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>250</v>
+      </c>
+      <c r="C35" t="n">
+        <v>34.99</v>
+      </c>
+      <c r="D35" t="n">
+        <v>767.0587768554688</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>225</v>
+      </c>
+      <c r="C36" t="n">
+        <v>42.65</v>
+      </c>
+      <c r="D36" t="n">
+        <v>720.9865112304688</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>200</v>
+      </c>
+      <c r="C37" t="n">
+        <v>37.35</v>
+      </c>
+      <c r="D37" t="n">
+        <v>699.3179931640625</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>175</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36.91</v>
+      </c>
+      <c r="D38" t="n">
+        <v>648.9176025390625</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>150</v>
+      </c>
+      <c r="C39" t="n">
+        <v>39.09</v>
+      </c>
+      <c r="D39" t="n">
+        <v>591.1492309570312</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>125</v>
+      </c>
+      <c r="C40" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="D40" t="n">
+        <v>518.3137817382812</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>100</v>
+      </c>
+      <c r="C41" t="n">
+        <v>48.29</v>
+      </c>
+      <c r="D41" t="n">
+        <v>492.9924011230469</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>75</v>
+      </c>
+      <c r="C42" t="n">
+        <v>48.77</v>
+      </c>
+      <c r="D42" t="n">
+        <v>480.4779357910156</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>50</v>
+      </c>
+      <c r="C43" t="n">
+        <v>48.97</v>
+      </c>
+      <c r="D43" t="n">
+        <v>467.32958984375</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>25</v>
+      </c>
+      <c r="C44" t="n">
+        <v>48.37</v>
+      </c>
+      <c r="D44" t="n">
+        <v>459.0653381347656</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>10</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>250</v>
+      </c>
+      <c r="C46" t="n">
+        <v>28.69</v>
+      </c>
+      <c r="D46" t="n">
+        <v>605.4052124023438</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>225</v>
+      </c>
+      <c r="C47" t="n">
+        <v>34.15</v>
+      </c>
+      <c r="D47" t="n">
+        <v>489.5329284667969</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>200</v>
+      </c>
+      <c r="C48" t="n">
+        <v>48.07</v>
+      </c>
+      <c r="D48" t="n">
+        <v>371.1548767089844</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>175</v>
+      </c>
+      <c r="C49" t="n">
+        <v>46.03</v>
+      </c>
+      <c r="D49" t="n">
+        <v>385.5556640625</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>150</v>
+      </c>
+      <c r="C50" t="n">
+        <v>47.23</v>
+      </c>
+      <c r="D50" t="n">
+        <v>365.7180786132812</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>125</v>
+      </c>
+      <c r="C51" t="n">
+        <v>48.56</v>
+      </c>
+      <c r="D51" t="n">
+        <v>350.0225524902344</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>100</v>
+      </c>
+      <c r="C52" t="n">
+        <v>48.64</v>
+      </c>
+      <c r="D52" t="n">
+        <v>347.3168029785156</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>75</v>
+      </c>
+      <c r="C53" t="n">
+        <v>48.14</v>
+      </c>
+      <c r="D53" t="n">
+        <v>343.33251953125</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>50</v>
+      </c>
+      <c r="C54" t="n">
+        <v>48.8</v>
+      </c>
+      <c r="D54" t="n">
+        <v>341.2647399902344</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>25</v>
+      </c>
+      <c r="C55" t="n">
+        <v>48.6</v>
+      </c>
+      <c r="D55" t="n">
+        <v>332.4295043945312</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+      <c r="C56" t="n">
+        <v>10</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>250</v>
+      </c>
+      <c r="C57" t="n">
+        <v>48.38</v>
+      </c>
+      <c r="D57" t="n">
+        <v>297.1689453125</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>225</v>
+      </c>
+      <c r="C58" t="n">
+        <v>44.8</v>
+      </c>
+      <c r="D58" t="n">
+        <v>316.1868286132812</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>200</v>
+      </c>
+      <c r="C59" t="n">
+        <v>47.51</v>
+      </c>
+      <c r="D59" t="n">
+        <v>292.7507019042969</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>175</v>
+      </c>
+      <c r="C60" t="n">
+        <v>48.19</v>
+      </c>
+      <c r="D60" t="n">
+        <v>285.5413208007812</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>150</v>
+      </c>
+      <c r="C61" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="D61" t="n">
+        <v>350.8532409667969</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>42.82</v>
+      </c>
+      <c r="D62" t="n">
+        <v>293.2425842285156</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>100</v>
+      </c>
+      <c r="C63" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="D63" t="n">
+        <v>269.3812561035156</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>75</v>
+      </c>
+      <c r="C64" t="n">
+        <v>47.91</v>
+      </c>
+      <c r="D64" t="n">
+        <v>263.9251098632812</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>50</v>
+      </c>
+      <c r="C65" t="n">
+        <v>48.26</v>
+      </c>
+      <c r="D65" t="n">
+        <v>262.0363464355469</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>25</v>
+      </c>
+      <c r="C66" t="n">
+        <v>48.06</v>
+      </c>
+      <c r="D66" t="n">
+        <v>257.68359375</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>[1, 2, 4, 6, 8, 10]</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+      <c r="C67" t="n">
+        <v>10</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
